--- a/ArquivosXML/teste.xlsx
+++ b/ArquivosXML/teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct67ca\Desktop\Fdt-New\ArquivosXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24053A4D-C89D-4D40-98A8-D4ED11FD0D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38987E-A2A4-45CA-973B-835D227AB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{B0B0E126-D22B-4FCB-932A-EA22F594C5AD}"/>
+    <workbookView xWindow="-27630" yWindow="-3525" windowWidth="21600" windowHeight="11385" xr2:uid="{B0B0E126-D22B-4FCB-932A-EA22F594C5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>nome</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Dona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +102,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,12 +136,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,19 +465,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,30 +579,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>92902661</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -600,7 +624,9 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{6CC56C4E-199E-45C5-95C6-6B990C805738}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{42097C84-1104-47F2-8CA6-D1C76C723945}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{90B756FD-B340-4569-81A6-7C06B35D0979}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{06B52F51-A9FB-434E-BAAB-92EE9A5A1DE0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/ArquivosXML/teste.xlsx
+++ b/ArquivosXML/teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct67ca\Desktop\Fdt-New\ArquivosXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38987E-A2A4-45CA-973B-835D227AB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E66B4F-DAEB-4AB2-B1AA-3033AF9267A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="-3525" windowWidth="21600" windowHeight="11385" xr2:uid="{B0B0E126-D22B-4FCB-932A-EA22F594C5AD}"/>
+    <workbookView xWindow="1575" yWindow="225" windowWidth="21600" windowHeight="11385" xr2:uid="{B0B0E126-D22B-4FCB-932A-EA22F594C5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>nome</t>
   </si>
@@ -77,13 +77,16 @@
     <t>Clebinho</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Vanessa</t>
   </si>
   <si>
-    <t>Dona</t>
+    <t>Caio</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Allana</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>92901234</v>
@@ -513,7 +516,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>92901235</v>
@@ -547,16 +550,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>92901237</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -564,7 +567,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>92901238</v>
@@ -580,21 +583,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>92902661</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -624,9 +617,8 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{6CC56C4E-199E-45C5-95C6-6B990C805738}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{42097C84-1104-47F2-8CA6-D1C76C723945}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{90B756FD-B340-4569-81A6-7C06B35D0979}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{06B52F51-A9FB-434E-BAAB-92EE9A5A1DE0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>